--- a/Code/Results/Cases/Case_3_119/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_119/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007894342987942</v>
+        <v>1.030094156859033</v>
       </c>
       <c r="D2">
-        <v>1.023758074455589</v>
+        <v>1.033669348053059</v>
       </c>
       <c r="E2">
-        <v>1.013287286478163</v>
+        <v>1.029847730271327</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047523691491647</v>
+        <v>1.035820363481174</v>
       </c>
       <c r="J2">
-        <v>1.029841472405282</v>
+        <v>1.035237302641636</v>
       </c>
       <c r="K2">
-        <v>1.034896054132045</v>
+        <v>1.036471032017796</v>
       </c>
       <c r="L2">
-        <v>1.024564560693087</v>
+        <v>1.032660452963381</v>
       </c>
       <c r="N2">
-        <v>1.013850411312686</v>
+        <v>1.015751317678294</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012192483673967</v>
+        <v>1.030983058356788</v>
       </c>
       <c r="D3">
-        <v>1.026856236746947</v>
+        <v>1.034322540826321</v>
       </c>
       <c r="E3">
-        <v>1.016704500398677</v>
+        <v>1.030600611673587</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048934816331102</v>
+        <v>1.03604439206038</v>
       </c>
       <c r="J3">
-        <v>1.032356198986745</v>
+        <v>1.035767822487928</v>
       </c>
       <c r="K3">
-        <v>1.037156642569481</v>
+        <v>1.036933669006539</v>
       </c>
       <c r="L3">
-        <v>1.027128014029487</v>
+        <v>1.033221714495673</v>
       </c>
       <c r="N3">
-        <v>1.014685769365972</v>
+        <v>1.01592708143386</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014916128572003</v>
+        <v>1.031558417772075</v>
       </c>
       <c r="D4">
-        <v>1.028821473133068</v>
+        <v>1.034745258136857</v>
       </c>
       <c r="E4">
-        <v>1.018875663769952</v>
+        <v>1.031088328203587</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049818020882148</v>
+        <v>1.036188038287384</v>
       </c>
       <c r="J4">
-        <v>1.033945824142724</v>
+        <v>1.036110655197864</v>
       </c>
       <c r="K4">
-        <v>1.038584060675041</v>
+        <v>1.037232400095141</v>
       </c>
       <c r="L4">
-        <v>1.028751491250932</v>
+        <v>1.033584777805449</v>
       </c>
       <c r="N4">
-        <v>1.015213801484068</v>
+        <v>1.016040642581566</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016047829523822</v>
+        <v>1.031800340905186</v>
       </c>
       <c r="D5">
-        <v>1.029638477549528</v>
+        <v>1.034922980837736</v>
       </c>
       <c r="E5">
-        <v>1.019779142613717</v>
+        <v>1.031293494834103</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050182320503715</v>
+        <v>1.036248111582146</v>
       </c>
       <c r="J5">
-        <v>1.034605357478518</v>
+        <v>1.036254673442431</v>
       </c>
       <c r="K5">
-        <v>1.039175909771086</v>
+        <v>1.037357835686089</v>
       </c>
       <c r="L5">
-        <v>1.029425804255924</v>
+        <v>1.033737382006193</v>
       </c>
       <c r="N5">
-        <v>1.015432874727624</v>
+        <v>1.016088342650856</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016237078877698</v>
+        <v>1.031840963293059</v>
       </c>
       <c r="D6">
-        <v>1.029775125455049</v>
+        <v>1.034952821940798</v>
       </c>
       <c r="E6">
-        <v>1.019930305027189</v>
+        <v>1.031327950828154</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050243081933759</v>
+        <v>1.036258179626405</v>
       </c>
       <c r="J6">
-        <v>1.034715590242133</v>
+        <v>1.036278848337185</v>
       </c>
       <c r="K6">
-        <v>1.039274807029621</v>
+        <v>1.037378887989497</v>
       </c>
       <c r="L6">
-        <v>1.029538550525467</v>
+        <v>1.033763003269393</v>
       </c>
       <c r="N6">
-        <v>1.015469489646181</v>
+        <v>1.016096349284369</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014931302163658</v>
+        <v>1.031561650197186</v>
       </c>
       <c r="D7">
-        <v>1.028832425710504</v>
+        <v>1.034747632829699</v>
       </c>
       <c r="E7">
-        <v>1.018887772169786</v>
+        <v>1.031091069138896</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049822915974056</v>
+        <v>1.036188842230584</v>
       </c>
       <c r="J7">
-        <v>1.03395467089937</v>
+        <v>1.036112580004919</v>
       </c>
       <c r="K7">
-        <v>1.03859200107311</v>
+        <v>1.037234076766192</v>
       </c>
       <c r="L7">
-        <v>1.028760533349872</v>
+        <v>1.033586817020236</v>
       </c>
       <c r="N7">
-        <v>1.015216740086687</v>
+        <v>1.016041280113974</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009359115261672</v>
+        <v>1.030394527127689</v>
       </c>
       <c r="D8">
-        <v>1.024813455192381</v>
+        <v>1.033890084705999</v>
       </c>
       <c r="E8">
-        <v>1.014450616892073</v>
+        <v>1.03010205486912</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048006872345531</v>
+        <v>1.035896346893445</v>
       </c>
       <c r="J8">
-        <v>1.030699269517726</v>
+        <v>1.035416686630972</v>
       </c>
       <c r="K8">
-        <v>1.035667483512589</v>
+        <v>1.036627511307609</v>
       </c>
       <c r="L8">
-        <v>1.025438339475272</v>
+        <v>1.032850156084643</v>
       </c>
       <c r="N8">
-        <v>1.014135362916075</v>
+        <v>1.01581075277257</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9990778721306819</v>
+        <v>1.028339345207363</v>
       </c>
       <c r="D9">
-        <v>1.017416282929691</v>
+        <v>1.032379485807432</v>
       </c>
       <c r="E9">
-        <v>1.006311271323021</v>
+        <v>1.028363579809469</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044570465515</v>
+        <v>1.035370890684403</v>
       </c>
       <c r="J9">
-        <v>1.024663235184946</v>
+        <v>1.034187042864507</v>
       </c>
       <c r="K9">
-        <v>1.030232974335358</v>
+        <v>1.035553919578148</v>
       </c>
       <c r="L9">
-        <v>1.01930277577827</v>
+        <v>1.031551271472484</v>
       </c>
       <c r="N9">
-        <v>1.012130243737658</v>
+        <v>1.015403251525917</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.991880669946694</v>
+        <v>1.026970262437105</v>
       </c>
       <c r="D10">
-        <v>1.012253842888949</v>
+        <v>1.031372852802211</v>
       </c>
       <c r="E10">
-        <v>1.000648599546837</v>
+        <v>1.027207574095588</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04210963330715</v>
+        <v>1.035013876379566</v>
       </c>
       <c r="J10">
-        <v>1.020420171489144</v>
+        <v>1.033365065846301</v>
       </c>
       <c r="K10">
-        <v>1.026405319826921</v>
+        <v>1.034835065501006</v>
       </c>
       <c r="L10">
-        <v>1.015006153195016</v>
+        <v>1.030684883938532</v>
       </c>
       <c r="N10">
-        <v>1.010720805254882</v>
+        <v>1.015130745054222</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9886750545120113</v>
+        <v>1.026377695517656</v>
       </c>
       <c r="D11">
-        <v>1.009959075134518</v>
+        <v>1.030937091037144</v>
       </c>
       <c r="E11">
-        <v>0.9981354784635276</v>
+        <v>1.026707735996931</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041001104855666</v>
+        <v>1.034857702284895</v>
       </c>
       <c r="J11">
-        <v>1.018526673447832</v>
+        <v>1.033008629006748</v>
       </c>
       <c r="K11">
-        <v>1.024695590429169</v>
+        <v>1.034523065677704</v>
       </c>
       <c r="L11">
-        <v>1.01309264279783</v>
+        <v>1.030309632843343</v>
       </c>
       <c r="N11">
-        <v>1.010091876914028</v>
+        <v>1.015012552612284</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.987470232580644</v>
+        <v>1.026157629220022</v>
       </c>
       <c r="D12">
-        <v>1.009097352351042</v>
+        <v>1.030775248781546</v>
       </c>
       <c r="E12">
-        <v>0.9971923451679082</v>
+        <v>1.02652218355063</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040582647053722</v>
+        <v>1.034799454871648</v>
       </c>
       <c r="J12">
-        <v>1.017814506710694</v>
+        <v>1.032876156125066</v>
       </c>
       <c r="K12">
-        <v>1.024052312508238</v>
+        <v>1.034407066240288</v>
       </c>
       <c r="L12">
-        <v>1.012373533820648</v>
+        <v>1.030170234057846</v>
       </c>
       <c r="N12">
-        <v>1.00985533851457</v>
+        <v>1.014968621710609</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9877293216786178</v>
+        <v>1.026204832384885</v>
       </c>
       <c r="D13">
-        <v>1.009282624693218</v>
+        <v>1.030809963608041</v>
       </c>
       <c r="E13">
-        <v>0.9973950948104242</v>
+        <v>1.026561980192881</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040672715022249</v>
+        <v>1.034811959871821</v>
       </c>
       <c r="J13">
-        <v>1.017967675355851</v>
+        <v>1.032904575446754</v>
       </c>
       <c r="K13">
-        <v>1.02419067506659</v>
+        <v>1.034431953420436</v>
       </c>
       <c r="L13">
-        <v>1.01252816913839</v>
+        <v>1.030200136177676</v>
       </c>
       <c r="N13">
-        <v>1.009906211366798</v>
+        <v>1.014978046342808</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9885757557806433</v>
+        <v>1.026359503957696</v>
       </c>
       <c r="D14">
-        <v>1.009888037999135</v>
+        <v>1.030923712708243</v>
       </c>
       <c r="E14">
-        <v>0.9980577183682111</v>
+        <v>1.026692395927721</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040966653176115</v>
+        <v>1.034852892374639</v>
       </c>
       <c r="J14">
-        <v>1.018467988150614</v>
+        <v>1.03299768030881</v>
       </c>
       <c r="K14">
-        <v>1.024642586407198</v>
+        <v>1.034513479341654</v>
       </c>
       <c r="L14">
-        <v>1.013033373548734</v>
+        <v>1.030298110371602</v>
       </c>
       <c r="N14">
-        <v>1.010072385039583</v>
+        <v>1.015008921858944</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9890953793405052</v>
+        <v>1.026454807478747</v>
       </c>
       <c r="D15">
-        <v>1.010259801933658</v>
+        <v>1.030993799854123</v>
       </c>
       <c r="E15">
-        <v>0.9984646898093028</v>
+        <v>1.026772763944734</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041146862622702</v>
+        <v>1.03487808080237</v>
       </c>
       <c r="J15">
-        <v>1.01877506423401</v>
+        <v>1.033055035199172</v>
       </c>
       <c r="K15">
-        <v>1.02491992546797</v>
+        <v>1.034563695765329</v>
       </c>
       <c r="L15">
-        <v>1.013343529039675</v>
+        <v>1.030358473708712</v>
       </c>
       <c r="N15">
-        <v>1.01017437839799</v>
+        <v>1.015027941456555</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9920914772231422</v>
+        <v>1.027009594620534</v>
       </c>
       <c r="D16">
-        <v>1.012404852399354</v>
+        <v>1.031401775467344</v>
       </c>
       <c r="E16">
-        <v>1.000814060103639</v>
+        <v>1.027240762002326</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042182276788438</v>
+        <v>1.035024207811605</v>
       </c>
       <c r="J16">
-        <v>1.02054461943162</v>
+        <v>1.033388710617681</v>
       </c>
       <c r="K16">
-        <v>1.02651765736977</v>
+        <v>1.034855756584755</v>
       </c>
       <c r="L16">
-        <v>1.015131997406479</v>
+        <v>1.030709786117219</v>
       </c>
       <c r="N16">
-        <v>1.010762141940772</v>
+        <v>1.015138585014307</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9939464845513641</v>
+        <v>1.027357666997669</v>
       </c>
       <c r="D17">
-        <v>1.013734195500316</v>
+        <v>1.031657720162104</v>
       </c>
       <c r="E17">
-        <v>1.00227107073125</v>
+        <v>1.027534518649402</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042820092149734</v>
+        <v>1.035115445661573</v>
       </c>
       <c r="J17">
-        <v>1.021639294609545</v>
+        <v>1.033597879161868</v>
       </c>
       <c r="K17">
-        <v>1.027505624885708</v>
+        <v>1.035038763584386</v>
       </c>
       <c r="L17">
-        <v>1.01623939668411</v>
+        <v>1.030930129255298</v>
       </c>
       <c r="N17">
-        <v>1.011125755017134</v>
+        <v>1.015207936766112</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9950199252738458</v>
+        <v>1.027560716249512</v>
       </c>
       <c r="D18">
-        <v>1.014503877666671</v>
+        <v>1.031807019558234</v>
       </c>
       <c r="E18">
-        <v>1.003115053325458</v>
+        <v>1.027705931300769</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043187990295414</v>
+        <v>1.035168510226052</v>
       </c>
       <c r="J18">
-        <v>1.022272403086487</v>
+        <v>1.03371983383853</v>
       </c>
       <c r="K18">
-        <v>1.028076865149051</v>
+        <v>1.035145437844149</v>
       </c>
       <c r="L18">
-        <v>1.016880232658239</v>
+        <v>1.03105864199592</v>
       </c>
       <c r="N18">
-        <v>1.011336055666519</v>
+        <v>1.015248369596436</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9953845108981197</v>
+        <v>1.027629954922131</v>
       </c>
       <c r="D19">
-        <v>1.014765364688387</v>
+        <v>1.031857928645916</v>
       </c>
       <c r="E19">
-        <v>1.003401847953382</v>
+        <v>1.027764390305511</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043312740915289</v>
+        <v>1.035186577911632</v>
       </c>
       <c r="J19">
-        <v>1.022487372712403</v>
+        <v>1.033761408753127</v>
       </c>
       <c r="K19">
-        <v>1.02827080122012</v>
+        <v>1.035181798998411</v>
       </c>
       <c r="L19">
-        <v>1.017097888625689</v>
+        <v>1.031102459842152</v>
       </c>
       <c r="N19">
-        <v>1.011407463079387</v>
+        <v>1.015262152933861</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.993748349580991</v>
+        <v>1.027320319580935</v>
       </c>
       <c r="D20">
-        <v>1.013592162214703</v>
+        <v>1.031630258550779</v>
       </c>
       <c r="E20">
-        <v>1.002115357377354</v>
+        <v>1.027502994155188</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042752089372994</v>
+        <v>1.035105672517209</v>
       </c>
       <c r="J20">
-        <v>1.02152240730109</v>
+        <v>1.033575442499624</v>
       </c>
       <c r="K20">
-        <v>1.027400147455869</v>
+        <v>1.035019135962933</v>
       </c>
       <c r="L20">
-        <v>1.016121112480733</v>
+        <v>1.030906489515292</v>
       </c>
       <c r="N20">
-        <v>1.011086928681203</v>
+        <v>1.015200497928858</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9883268976341374</v>
+        <v>1.026313955936715</v>
       </c>
       <c r="D21">
-        <v>1.009710020319473</v>
+        <v>1.030890215895065</v>
       </c>
       <c r="E21">
-        <v>0.9978628624440575</v>
+        <v>1.026653988704583</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040880282746566</v>
+        <v>1.034840845320907</v>
       </c>
       <c r="J21">
-        <v>1.01832090572148</v>
+        <v>1.032970265347178</v>
       </c>
       <c r="K21">
-        <v>1.024509739268862</v>
+        <v>1.034489474985113</v>
       </c>
       <c r="L21">
-        <v>1.012884836984701</v>
+        <v>1.030269259785812</v>
       </c>
       <c r="N21">
-        <v>1.010023532882358</v>
+        <v>1.014999830585543</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9848361673934009</v>
+        <v>1.025681443924036</v>
       </c>
       <c r="D22">
-        <v>1.007214874329287</v>
+        <v>1.030425032752765</v>
       </c>
       <c r="E22">
-        <v>0.9951330772818915</v>
+        <v>1.026120820592272</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039664500190304</v>
+        <v>1.034672964749903</v>
       </c>
       <c r="J22">
-        <v>1.016256652057583</v>
+        <v>1.032589325127033</v>
       </c>
       <c r="K22">
-        <v>1.022644745419213</v>
+        <v>1.034155827077728</v>
       </c>
       <c r="L22">
-        <v>1.010801569372926</v>
+        <v>1.029868528763757</v>
       </c>
       <c r="N22">
-        <v>1.009337933062658</v>
+        <v>1.014873495661129</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9866946988131554</v>
+        <v>1.02601672844658</v>
       </c>
       <c r="D23">
-        <v>1.008542892046092</v>
+        <v>1.030671624114554</v>
       </c>
       <c r="E23">
-        <v>0.9965856652949094</v>
+        <v>1.026403402374089</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040312783326027</v>
+        <v>1.034762091360574</v>
       </c>
       <c r="J23">
-        <v>1.01735595600635</v>
+        <v>1.032791310224662</v>
       </c>
       <c r="K23">
-        <v>1.02363805524821</v>
+        <v>1.034332759419795</v>
       </c>
       <c r="L23">
-        <v>1.011910677981623</v>
+        <v>1.03008097100682</v>
       </c>
       <c r="N23">
-        <v>1.00970303870825</v>
+        <v>1.014940483935353</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9938379046267578</v>
+        <v>1.027337195195271</v>
       </c>
       <c r="D24">
-        <v>1.013656358530763</v>
+        <v>1.031642667236468</v>
       </c>
       <c r="E24">
-        <v>1.002185735637051</v>
+        <v>1.027517238502995</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042782829641902</v>
+        <v>1.035110089053052</v>
       </c>
       <c r="J24">
-        <v>1.021575240294537</v>
+        <v>1.033585580815481</v>
       </c>
       <c r="K24">
-        <v>1.027447823668189</v>
+        <v>1.035028005058536</v>
       </c>
       <c r="L24">
-        <v>1.016174575727086</v>
+        <v>1.030917171326279</v>
       </c>
       <c r="N24">
-        <v>1.011104478149567</v>
+        <v>1.015203859277565</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001793797537145</v>
+        <v>1.028870481199821</v>
       </c>
       <c r="D25">
-        <v>1.019367875577765</v>
+        <v>1.032769942078622</v>
       </c>
       <c r="E25">
-        <v>1.008455548073112</v>
+        <v>1.028812499051303</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045487953383271</v>
+        <v>1.035507919462469</v>
       </c>
       <c r="J25">
-        <v>1.026260943675635</v>
+        <v>1.034505330343648</v>
       </c>
       <c r="K25">
-        <v>1.031672790088614</v>
+        <v>1.035832024520715</v>
       </c>
       <c r="L25">
-        <v>1.020924005441223</v>
+        <v>1.031887151210752</v>
       </c>
       <c r="N25">
-        <v>1.012660985356816</v>
+        <v>1.015508749949986</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_119/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_119/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030094156859033</v>
+        <v>1.007894342987943</v>
       </c>
       <c r="D2">
-        <v>1.033669348053059</v>
+        <v>1.023758074455589</v>
       </c>
       <c r="E2">
-        <v>1.029847730271327</v>
+        <v>1.013287286478163</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035820363481174</v>
+        <v>1.047523691491647</v>
       </c>
       <c r="J2">
-        <v>1.035237302641636</v>
+        <v>1.029841472405282</v>
       </c>
       <c r="K2">
-        <v>1.036471032017796</v>
+        <v>1.034896054132045</v>
       </c>
       <c r="L2">
-        <v>1.032660452963381</v>
+        <v>1.024564560693087</v>
       </c>
       <c r="N2">
-        <v>1.015751317678294</v>
+        <v>1.013850411312686</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030983058356788</v>
+        <v>1.012192483673966</v>
       </c>
       <c r="D3">
-        <v>1.034322540826321</v>
+        <v>1.026856236746947</v>
       </c>
       <c r="E3">
-        <v>1.030600611673587</v>
+        <v>1.016704500398677</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03604439206038</v>
+        <v>1.048934816331102</v>
       </c>
       <c r="J3">
-        <v>1.035767822487928</v>
+        <v>1.032356198986745</v>
       </c>
       <c r="K3">
-        <v>1.036933669006539</v>
+        <v>1.037156642569482</v>
       </c>
       <c r="L3">
-        <v>1.033221714495673</v>
+        <v>1.027128014029487</v>
       </c>
       <c r="N3">
-        <v>1.01592708143386</v>
+        <v>1.014685769365972</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031558417772075</v>
+        <v>1.014916128572002</v>
       </c>
       <c r="D4">
-        <v>1.034745258136857</v>
+        <v>1.028821473133067</v>
       </c>
       <c r="E4">
-        <v>1.031088328203587</v>
+        <v>1.01887566376995</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036188038287384</v>
+        <v>1.049818020882147</v>
       </c>
       <c r="J4">
-        <v>1.036110655197864</v>
+        <v>1.033945824142722</v>
       </c>
       <c r="K4">
-        <v>1.037232400095141</v>
+        <v>1.03858406067504</v>
       </c>
       <c r="L4">
-        <v>1.033584777805449</v>
+        <v>1.028751491250931</v>
       </c>
       <c r="N4">
-        <v>1.016040642581566</v>
+        <v>1.015213801484067</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031800340905186</v>
+        <v>1.016047829523821</v>
       </c>
       <c r="D5">
-        <v>1.034922980837736</v>
+        <v>1.029638477549527</v>
       </c>
       <c r="E5">
-        <v>1.031293494834103</v>
+        <v>1.019779142613717</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036248111582146</v>
+        <v>1.050182320503715</v>
       </c>
       <c r="J5">
-        <v>1.036254673442431</v>
+        <v>1.034605357478518</v>
       </c>
       <c r="K5">
-        <v>1.037357835686089</v>
+        <v>1.039175909771086</v>
       </c>
       <c r="L5">
-        <v>1.033737382006193</v>
+        <v>1.029425804255923</v>
       </c>
       <c r="N5">
-        <v>1.016088342650856</v>
+        <v>1.015432874727624</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031840963293059</v>
+        <v>1.016237078877698</v>
       </c>
       <c r="D6">
-        <v>1.034952821940798</v>
+        <v>1.029775125455049</v>
       </c>
       <c r="E6">
-        <v>1.031327950828154</v>
+        <v>1.019930305027189</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036258179626405</v>
+        <v>1.050243081933758</v>
       </c>
       <c r="J6">
-        <v>1.036278848337185</v>
+        <v>1.034715590242133</v>
       </c>
       <c r="K6">
-        <v>1.037378887989497</v>
+        <v>1.039274807029621</v>
       </c>
       <c r="L6">
-        <v>1.033763003269393</v>
+        <v>1.029538550525467</v>
       </c>
       <c r="N6">
-        <v>1.016096349284369</v>
+        <v>1.015469489646181</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031561650197186</v>
+        <v>1.014931302163658</v>
       </c>
       <c r="D7">
-        <v>1.034747632829699</v>
+        <v>1.028832425710505</v>
       </c>
       <c r="E7">
-        <v>1.031091069138896</v>
+        <v>1.018887772169787</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036188842230584</v>
+        <v>1.049822915974056</v>
       </c>
       <c r="J7">
-        <v>1.036112580004919</v>
+        <v>1.033954670899371</v>
       </c>
       <c r="K7">
-        <v>1.037234076766192</v>
+        <v>1.03859200107311</v>
       </c>
       <c r="L7">
-        <v>1.033586817020236</v>
+        <v>1.028760533349873</v>
       </c>
       <c r="N7">
-        <v>1.016041280113974</v>
+        <v>1.015216740086687</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030394527127689</v>
+        <v>1.00935911526167</v>
       </c>
       <c r="D8">
-        <v>1.033890084705999</v>
+        <v>1.024813455192379</v>
       </c>
       <c r="E8">
-        <v>1.03010205486912</v>
+        <v>1.014450616892071</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035896346893445</v>
+        <v>1.04800687234553</v>
       </c>
       <c r="J8">
-        <v>1.035416686630972</v>
+        <v>1.030699269517724</v>
       </c>
       <c r="K8">
-        <v>1.036627511307609</v>
+        <v>1.035667483512588</v>
       </c>
       <c r="L8">
-        <v>1.032850156084643</v>
+        <v>1.02543833947527</v>
       </c>
       <c r="N8">
-        <v>1.01581075277257</v>
+        <v>1.014135362916075</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028339345207363</v>
+        <v>0.9990778721306812</v>
       </c>
       <c r="D9">
-        <v>1.032379485807432</v>
+        <v>1.01741628292969</v>
       </c>
       <c r="E9">
-        <v>1.028363579809469</v>
+        <v>1.00631127132302</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035370890684403</v>
+        <v>1.044570465514999</v>
       </c>
       <c r="J9">
-        <v>1.034187042864507</v>
+        <v>1.024663235184945</v>
       </c>
       <c r="K9">
-        <v>1.035553919578148</v>
+        <v>1.030232974335358</v>
       </c>
       <c r="L9">
-        <v>1.031551271472484</v>
+        <v>1.01930277577827</v>
       </c>
       <c r="N9">
-        <v>1.015403251525917</v>
+        <v>1.012130243737658</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026970262437105</v>
+        <v>0.9918806699466949</v>
       </c>
       <c r="D10">
-        <v>1.031372852802211</v>
+        <v>1.01225384288895</v>
       </c>
       <c r="E10">
-        <v>1.027207574095588</v>
+        <v>1.000648599546838</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035013876379566</v>
+        <v>1.042109633307151</v>
       </c>
       <c r="J10">
-        <v>1.033365065846301</v>
+        <v>1.020420171489144</v>
       </c>
       <c r="K10">
-        <v>1.034835065501006</v>
+        <v>1.026405319826922</v>
       </c>
       <c r="L10">
-        <v>1.030684883938532</v>
+        <v>1.015006153195017</v>
       </c>
       <c r="N10">
-        <v>1.015130745054222</v>
+        <v>1.010720805254882</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026377695517656</v>
+        <v>0.9886750545120112</v>
       </c>
       <c r="D11">
-        <v>1.030937091037144</v>
+        <v>1.009959075134518</v>
       </c>
       <c r="E11">
-        <v>1.026707735996931</v>
+        <v>0.9981354784635273</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034857702284895</v>
+        <v>1.041001104855666</v>
       </c>
       <c r="J11">
-        <v>1.033008629006748</v>
+        <v>1.018526673447832</v>
       </c>
       <c r="K11">
-        <v>1.034523065677704</v>
+        <v>1.024695590429169</v>
       </c>
       <c r="L11">
-        <v>1.030309632843343</v>
+        <v>1.01309264279783</v>
       </c>
       <c r="N11">
-        <v>1.015012552612284</v>
+        <v>1.010091876914028</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026157629220022</v>
+        <v>0.9874702325806437</v>
       </c>
       <c r="D12">
-        <v>1.030775248781546</v>
+        <v>1.009097352351042</v>
       </c>
       <c r="E12">
-        <v>1.02652218355063</v>
+        <v>0.9971923451679077</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034799454871648</v>
+        <v>1.040582647053722</v>
       </c>
       <c r="J12">
-        <v>1.032876156125066</v>
+        <v>1.017814506710694</v>
       </c>
       <c r="K12">
-        <v>1.034407066240288</v>
+        <v>1.024052312508238</v>
       </c>
       <c r="L12">
-        <v>1.030170234057846</v>
+        <v>1.012373533820648</v>
       </c>
       <c r="N12">
-        <v>1.014968621710609</v>
+        <v>1.00985533851457</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026204832384885</v>
+        <v>0.9877293216786168</v>
       </c>
       <c r="D13">
-        <v>1.030809963608041</v>
+        <v>1.009282624693217</v>
       </c>
       <c r="E13">
-        <v>1.026561980192881</v>
+        <v>0.9973950948104233</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034811959871821</v>
+        <v>1.040672715022248</v>
       </c>
       <c r="J13">
-        <v>1.032904575446754</v>
+        <v>1.01796767535585</v>
       </c>
       <c r="K13">
-        <v>1.034431953420436</v>
+        <v>1.024190675066589</v>
       </c>
       <c r="L13">
-        <v>1.030200136177676</v>
+        <v>1.01252816913839</v>
       </c>
       <c r="N13">
-        <v>1.014978046342808</v>
+        <v>1.009906211366797</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026359503957696</v>
+        <v>0.9885757557806433</v>
       </c>
       <c r="D14">
-        <v>1.030923712708243</v>
+        <v>1.009888037999135</v>
       </c>
       <c r="E14">
-        <v>1.026692395927721</v>
+        <v>0.9980577183682112</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034852892374639</v>
+        <v>1.040966653176115</v>
       </c>
       <c r="J14">
-        <v>1.03299768030881</v>
+        <v>1.018467988150614</v>
       </c>
       <c r="K14">
-        <v>1.034513479341654</v>
+        <v>1.024642586407198</v>
       </c>
       <c r="L14">
-        <v>1.030298110371602</v>
+        <v>1.013033373548734</v>
       </c>
       <c r="N14">
-        <v>1.015008921858944</v>
+        <v>1.010072385039583</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026454807478747</v>
+        <v>0.9890953793405041</v>
       </c>
       <c r="D15">
-        <v>1.030993799854123</v>
+        <v>1.010259801933657</v>
       </c>
       <c r="E15">
-        <v>1.026772763944734</v>
+        <v>0.9984646898093018</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03487808080237</v>
+        <v>1.041146862622702</v>
       </c>
       <c r="J15">
-        <v>1.033055035199172</v>
+        <v>1.018775064234009</v>
       </c>
       <c r="K15">
-        <v>1.034563695765329</v>
+        <v>1.024919925467969</v>
       </c>
       <c r="L15">
-        <v>1.030358473708712</v>
+        <v>1.013343529039674</v>
       </c>
       <c r="N15">
-        <v>1.015027941456555</v>
+        <v>1.01017437839799</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027009594620534</v>
+        <v>0.9920914772231414</v>
       </c>
       <c r="D16">
-        <v>1.031401775467344</v>
+        <v>1.012404852399353</v>
       </c>
       <c r="E16">
-        <v>1.027240762002326</v>
+        <v>1.000814060103639</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035024207811605</v>
+        <v>1.042182276788438</v>
       </c>
       <c r="J16">
-        <v>1.033388710617681</v>
+        <v>1.020544619431619</v>
       </c>
       <c r="K16">
-        <v>1.034855756584755</v>
+        <v>1.026517657369769</v>
       </c>
       <c r="L16">
-        <v>1.030709786117219</v>
+        <v>1.015131997406478</v>
       </c>
       <c r="N16">
-        <v>1.015138585014307</v>
+        <v>1.010762141940772</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027357666997669</v>
+        <v>0.9939464845513639</v>
       </c>
       <c r="D17">
-        <v>1.031657720162104</v>
+        <v>1.013734195500316</v>
       </c>
       <c r="E17">
-        <v>1.027534518649402</v>
+        <v>1.002271070731249</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035115445661573</v>
+        <v>1.042820092149733</v>
       </c>
       <c r="J17">
-        <v>1.033597879161868</v>
+        <v>1.021639294609545</v>
       </c>
       <c r="K17">
-        <v>1.035038763584386</v>
+        <v>1.027505624885707</v>
       </c>
       <c r="L17">
-        <v>1.030930129255298</v>
+        <v>1.01623939668411</v>
       </c>
       <c r="N17">
-        <v>1.015207936766112</v>
+        <v>1.011125755017134</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027560716249512</v>
+        <v>0.995019925273846</v>
       </c>
       <c r="D18">
-        <v>1.031807019558234</v>
+        <v>1.014503877666671</v>
       </c>
       <c r="E18">
-        <v>1.027705931300769</v>
+        <v>1.003115053325458</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035168510226052</v>
+        <v>1.043187990295414</v>
       </c>
       <c r="J18">
-        <v>1.03371983383853</v>
+        <v>1.022272403086487</v>
       </c>
       <c r="K18">
-        <v>1.035145437844149</v>
+        <v>1.028076865149051</v>
       </c>
       <c r="L18">
-        <v>1.03105864199592</v>
+        <v>1.016880232658239</v>
       </c>
       <c r="N18">
-        <v>1.015248369596436</v>
+        <v>1.011336055666519</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027629954922131</v>
+        <v>0.9953845108981193</v>
       </c>
       <c r="D19">
-        <v>1.031857928645916</v>
+        <v>1.014765364688387</v>
       </c>
       <c r="E19">
-        <v>1.027764390305511</v>
+        <v>1.003401847953381</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035186577911632</v>
+        <v>1.043312740915289</v>
       </c>
       <c r="J19">
-        <v>1.033761408753127</v>
+        <v>1.022487372712402</v>
       </c>
       <c r="K19">
-        <v>1.035181798998411</v>
+        <v>1.02827080122012</v>
       </c>
       <c r="L19">
-        <v>1.031102459842152</v>
+        <v>1.017097888625688</v>
       </c>
       <c r="N19">
-        <v>1.015262152933861</v>
+        <v>1.011407463079387</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027320319580935</v>
+        <v>0.9937483495809926</v>
       </c>
       <c r="D20">
-        <v>1.031630258550779</v>
+        <v>1.013592162214704</v>
       </c>
       <c r="E20">
-        <v>1.027502994155188</v>
+        <v>1.002115357377355</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035105672517209</v>
+        <v>1.042752089372995</v>
       </c>
       <c r="J20">
-        <v>1.033575442499624</v>
+        <v>1.021522407301091</v>
       </c>
       <c r="K20">
-        <v>1.035019135962933</v>
+        <v>1.027400147455871</v>
       </c>
       <c r="L20">
-        <v>1.030906489515292</v>
+        <v>1.016121112480735</v>
       </c>
       <c r="N20">
-        <v>1.015200497928858</v>
+        <v>1.011086928681204</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026313955936715</v>
+        <v>0.9883268976341389</v>
       </c>
       <c r="D21">
-        <v>1.030890215895065</v>
+        <v>1.009710020319475</v>
       </c>
       <c r="E21">
-        <v>1.026653988704583</v>
+        <v>0.9978628624440584</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034840845320907</v>
+        <v>1.040880282746566</v>
       </c>
       <c r="J21">
-        <v>1.032970265347178</v>
+        <v>1.018320905721481</v>
       </c>
       <c r="K21">
-        <v>1.034489474985113</v>
+        <v>1.024509739268864</v>
       </c>
       <c r="L21">
-        <v>1.030269259785812</v>
+        <v>1.012884836984702</v>
       </c>
       <c r="N21">
-        <v>1.014999830585543</v>
+        <v>1.010023532882359</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025681443924036</v>
+        <v>0.9848361673934002</v>
       </c>
       <c r="D22">
-        <v>1.030425032752765</v>
+        <v>1.007214874329287</v>
       </c>
       <c r="E22">
-        <v>1.026120820592272</v>
+        <v>0.9951330772818908</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034672964749903</v>
+        <v>1.039664500190304</v>
       </c>
       <c r="J22">
-        <v>1.032589325127033</v>
+        <v>1.016256652057582</v>
       </c>
       <c r="K22">
-        <v>1.034155827077728</v>
+        <v>1.022644745419212</v>
       </c>
       <c r="L22">
-        <v>1.029868528763757</v>
+        <v>1.010801569372925</v>
       </c>
       <c r="N22">
-        <v>1.014873495661129</v>
+        <v>1.009337933062658</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02601672844658</v>
+        <v>0.9866946988131561</v>
       </c>
       <c r="D23">
-        <v>1.030671624114554</v>
+        <v>1.008542892046093</v>
       </c>
       <c r="E23">
-        <v>1.026403402374089</v>
+        <v>0.9965856652949098</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034762091360574</v>
+        <v>1.040312783326027</v>
       </c>
       <c r="J23">
-        <v>1.032791310224662</v>
+        <v>1.017355956006351</v>
       </c>
       <c r="K23">
-        <v>1.034332759419795</v>
+        <v>1.023638055248211</v>
       </c>
       <c r="L23">
-        <v>1.03008097100682</v>
+        <v>1.011910677981623</v>
       </c>
       <c r="N23">
-        <v>1.014940483935353</v>
+        <v>1.00970303870825</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027337195195271</v>
+        <v>0.993837904626756</v>
       </c>
       <c r="D24">
-        <v>1.031642667236468</v>
+        <v>1.013656358530762</v>
       </c>
       <c r="E24">
-        <v>1.027517238502995</v>
+        <v>1.002185735637049</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035110089053052</v>
+        <v>1.042782829641901</v>
       </c>
       <c r="J24">
-        <v>1.033585580815481</v>
+        <v>1.021575240294535</v>
       </c>
       <c r="K24">
-        <v>1.035028005058536</v>
+        <v>1.027447823668187</v>
       </c>
       <c r="L24">
-        <v>1.030917171326279</v>
+        <v>1.016174575727084</v>
       </c>
       <c r="N24">
-        <v>1.015203859277565</v>
+        <v>1.011104478149567</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028870481199821</v>
+        <v>1.001793797537144</v>
       </c>
       <c r="D25">
-        <v>1.032769942078622</v>
+        <v>1.019367875577764</v>
       </c>
       <c r="E25">
-        <v>1.028812499051303</v>
+        <v>1.008455548073111</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035507919462469</v>
+        <v>1.04548795338327</v>
       </c>
       <c r="J25">
-        <v>1.034505330343648</v>
+        <v>1.026260943675634</v>
       </c>
       <c r="K25">
-        <v>1.035832024520715</v>
+        <v>1.031672790088614</v>
       </c>
       <c r="L25">
-        <v>1.031887151210752</v>
+        <v>1.020924005441222</v>
       </c>
       <c r="N25">
-        <v>1.015508749949986</v>
+        <v>1.012660985356816</v>
       </c>
     </row>
   </sheetData>
